--- a/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
+++ b/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C658F4C-6379-41A6-874E-E81AE064F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36334DB9-3D58-44E3-A80F-22CF2F1C5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32145" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimentSamples.Flow_Cytometr" sheetId="1" r:id="rId1"/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
+++ b/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36334DB9-3D58-44E3-A80F-22CF2F1C5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D7321-B31C-4A33-BDC6-5AF863AB6681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimentSamples.Flow_Cytometr" sheetId="1" r:id="rId1"/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
+++ b/ImmPort/Templates/experimentSamples.Flow_Cytometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D7321-B31C-4A33-BDC6-5AF863AB6681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA744F52-9794-4281-B9EE-6089E1881F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimentSamples.Flow_Cytometr" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="414">
   <si>
     <t>flow_cytometry</t>
   </si>
@@ -1101,6 +1101,534 @@
   </si>
   <si>
     <t>Whole blood</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>INF052</t>
+  </si>
+  <si>
+    <t>ILT_01</t>
+  </si>
+  <si>
+    <t>AntibodyPanel</t>
+  </si>
+  <si>
+    <t>ICS_Media</t>
+  </si>
+  <si>
+    <t>study_1716</t>
+  </si>
+  <si>
+    <t>protocol_1716_1</t>
+  </si>
+  <si>
+    <t>plannedvisit_1716_1</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>NotSpecified</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>TetramerPanel</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>TetramerControlPanel</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>ICS_PMA</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF052-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF052-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>INF171</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF171-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF171-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>INF182</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF182-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF182-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>INF281</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_TetramerControl</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_TetramerControl.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-INF281-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-INF281-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND006_v1-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>ND006</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND006_v1-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND006_v1-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND006_v1-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Antibody</t>
+  </si>
+  <si>
+    <t>ND050</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Tetramer</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Tetramer.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-Ctrl_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-Ctrl_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-PMA_Antibody</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-PMA_Antibody.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-ND050_v1-PMA_Unstained</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-ND050_v1-PMA_Unstained.fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR4 BUV615 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV615 CD194</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR4 BUV615 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR6 BV786 (Cells)</t>
+  </si>
+  <si>
+    <t>BV786 CD196</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR6 BV786 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CCR7 BV650 (Cells)</t>
+  </si>
+  <si>
+    <t>BV650 CD197</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CCR7 BV650 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD107a APC-R700 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-R700 CD107a</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD107a APC-R700 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD127 BV421 (Cells)</t>
+  </si>
+  <si>
+    <t>BV421 CD127</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD127 BV421 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD16 APC (Cells)</t>
+  </si>
+  <si>
+    <t>APC CD16</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD16 APC (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD161 BV480 (Cells)</t>
+  </si>
+  <si>
+    <t>BV480 CD161</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD161 BV480 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Cy5 CD25</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD25 PE-Cy5 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells)</t>
+  </si>
+  <si>
+    <t>PerCP-Cy5.5 CD26</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD26 PerCP-Cy5.5 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-Fire 750 CD27</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD27 APC-Fire 750 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 488 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 488 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells)</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Alexa Fluor 647 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 FITC (Cells)</t>
+  </si>
+  <si>
+    <t>FITC CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 FITC (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells)</t>
+  </si>
+  <si>
+    <t>Spark Blue 550 CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3 Spark Blue 550 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD3_PMA APC (Cells)</t>
+  </si>
+  <si>
+    <t>APC CD3</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD3_PMA APC (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells)</t>
+  </si>
+  <si>
+    <t>APC-Fire 810 CD38</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD38 APC-Fire 810 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD4 BUV805 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV805 CD4</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD4 BUV805 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD45RA BV510 (Cells)</t>
+  </si>
+  <si>
+    <t>BV510 CD45RA</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD45RA BV510 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD56 BV605 (Cells)</t>
+  </si>
+  <si>
+    <t>BV605 CD56</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD56 BV605 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD62L BUV395 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV395 CD62L</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD62L BUV395 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD69 BUV563 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV563 CD69</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD69 BUV563 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD7 BV711 (Cells)</t>
+  </si>
+  <si>
+    <t>BV711 CD7</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD7 BV711 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CD8 BUV496 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV496 CD8</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CD8 BUV496 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV615 CD183</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_CXCR3 BUV737 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells)</t>
+  </si>
+  <si>
+    <t>Pacific Blue CD14</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD14 Pacific Blue (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells)</t>
+  </si>
+  <si>
+    <t>Pacific Blue CD19</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Dump_CD19 Pacific Blue (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_IFNg BV750 (Cells)</t>
+  </si>
+  <si>
+    <t>BV750 IFNg</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_IFNg BV750 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_NKG2D PE (Cells)</t>
+  </si>
+  <si>
+    <t>PE CD314</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_NKG2D PE (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Vio770 PD1</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_PD1 PE-Vio770 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells)</t>
+  </si>
+  <si>
+    <t>PE-Dazzle594 TNFa</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_TNFa PE-Dazzle594 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_VD2 BUV661 (Cells)</t>
+  </si>
+  <si>
+    <t>BUV661 VD2</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_VD2 BUV661 (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Viability Zombie NIR (Cells)</t>
+  </si>
+  <si>
+    <t>Zombie NIR Viability</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Viability Zombie NIR (Cells).fcs</t>
+  </si>
+  <si>
+    <t>ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells)</t>
+  </si>
+  <si>
+    <t>DTR_2023_ILT_01-Reference Group-DR_Viability_PMA Zombie NIR (Cells).fcs</t>
   </si>
 </sst>
 </file>
@@ -1585,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,1795 +2217,3231 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>247</v>
+      </c>
+      <c r="W4" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>247</v>
+      </c>
+      <c r="W5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" t="s">
+        <v>244</v>
+      </c>
+      <c r="N6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" t="s">
+        <v>244</v>
+      </c>
+      <c r="N7" t="s">
+        <v>239</v>
+      </c>
+      <c r="O7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N8" t="s">
+        <v>239</v>
+      </c>
+      <c r="O8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P8" t="s">
+        <v>162</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>247</v>
+      </c>
+      <c r="W8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" t="s">
+        <v>244</v>
+      </c>
+      <c r="N9" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>247</v>
+      </c>
+      <c r="W9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" t="s">
+        <v>262</v>
+      </c>
+      <c r="O10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
+        <v>247</v>
+      </c>
+      <c r="W10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" t="s">
+        <v>262</v>
+      </c>
+      <c r="O11" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" t="s">
+        <v>247</v>
+      </c>
+      <c r="W11" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" t="s">
+        <v>244</v>
+      </c>
+      <c r="N12" t="s">
+        <v>262</v>
+      </c>
+      <c r="O12" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" t="s">
+        <v>247</v>
+      </c>
+      <c r="W12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" t="s">
+        <v>262</v>
+      </c>
+      <c r="O13" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>247</v>
+      </c>
+      <c r="W13" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" t="s">
+        <v>162</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
+        <v>247</v>
+      </c>
+      <c r="W14" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" t="s">
+        <v>273</v>
+      </c>
+      <c r="L15" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" t="s">
+        <v>262</v>
+      </c>
+      <c r="O15" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" t="s">
+        <v>162</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
+        <v>247</v>
+      </c>
+      <c r="W15" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M16" t="s">
+        <v>244</v>
+      </c>
+      <c r="N16" t="s">
+        <v>275</v>
+      </c>
+      <c r="O16" t="s">
+        <v>245</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" t="s">
+        <v>247</v>
+      </c>
+      <c r="W16" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" t="s">
+        <v>162</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" t="s">
+        <v>247</v>
+      </c>
+      <c r="W17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" t="s">
+        <v>275</v>
+      </c>
+      <c r="O18" t="s">
+        <v>245</v>
+      </c>
+      <c r="P18" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" t="s">
+        <v>247</v>
+      </c>
+      <c r="W18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" t="s">
+        <v>282</v>
+      </c>
+      <c r="L19" t="s">
+        <v>243</v>
+      </c>
+      <c r="M19" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" t="s">
+        <v>275</v>
+      </c>
+      <c r="O19" t="s">
+        <v>245</v>
+      </c>
+      <c r="P19" t="s">
+        <v>162</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>247</v>
+      </c>
+      <c r="W19" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" t="s">
+        <v>284</v>
+      </c>
+      <c r="L20" t="s">
+        <v>243</v>
+      </c>
+      <c r="M20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N20" t="s">
+        <v>275</v>
+      </c>
+      <c r="O20" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" t="s">
+        <v>247</v>
+      </c>
+      <c r="W20" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" t="s">
+        <v>244</v>
+      </c>
+      <c r="N21" t="s">
+        <v>275</v>
+      </c>
+      <c r="O21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="s">
+        <v>247</v>
+      </c>
+      <c r="W21" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" t="s">
+        <v>244</v>
+      </c>
+      <c r="N22" t="s">
+        <v>288</v>
+      </c>
+      <c r="O22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" t="s">
+        <v>162</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" t="s">
+        <v>247</v>
+      </c>
+      <c r="W22" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" t="s">
+        <v>291</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s">
+        <v>288</v>
+      </c>
+      <c r="O23" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" t="s">
+        <v>162</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" t="s">
+        <v>247</v>
+      </c>
+      <c r="W23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s">
+        <v>244</v>
+      </c>
+      <c r="N24" t="s">
+        <v>288</v>
+      </c>
+      <c r="O24" t="s">
+        <v>245</v>
+      </c>
+      <c r="P24" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" t="s">
+        <v>247</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s">
+        <v>244</v>
+      </c>
+      <c r="N25" t="s">
+        <v>288</v>
+      </c>
+      <c r="O25" t="s">
+        <v>245</v>
+      </c>
+      <c r="P25" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" t="s">
+        <v>247</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="s">
+        <v>297</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="s">
+        <v>244</v>
+      </c>
+      <c r="N26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" t="s">
+        <v>245</v>
+      </c>
+      <c r="P26" t="s">
+        <v>162</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" t="s">
+        <v>247</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>299</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s">
+        <v>244</v>
+      </c>
+      <c r="N27" t="s">
+        <v>288</v>
+      </c>
+      <c r="O27" t="s">
+        <v>245</v>
+      </c>
+      <c r="P27" t="s">
+        <v>162</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" t="s">
+        <v>247</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="s">
+        <v>244</v>
+      </c>
+      <c r="N28" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" t="s">
+        <v>207</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" t="s">
+        <v>247</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>304</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="s">
+        <v>244</v>
+      </c>
+      <c r="N29" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" t="s">
+        <v>207</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="s">
+        <v>244</v>
+      </c>
+      <c r="N30" t="s">
+        <v>306</v>
+      </c>
+      <c r="O30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P30" t="s">
+        <v>207</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" t="s">
+        <v>247</v>
+      </c>
+      <c r="W30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="s">
+        <v>244</v>
+      </c>
+      <c r="N31" t="s">
+        <v>306</v>
+      </c>
+      <c r="O31" t="s">
+        <v>245</v>
+      </c>
+      <c r="P31" t="s">
+        <v>207</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" t="s">
+        <v>247</v>
+      </c>
+      <c r="W31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="s">
+        <v>244</v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s">
+        <v>245</v>
+      </c>
+      <c r="P32" t="s">
+        <v>207</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" t="s">
+        <v>247</v>
+      </c>
+      <c r="W32" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="s">
+        <v>244</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>245</v>
+      </c>
+      <c r="P33" t="s">
+        <v>207</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" t="s">
+        <v>247</v>
+      </c>
+      <c r="W33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s">
+        <v>244</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" t="s">
+        <v>207</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" t="s">
+        <v>247</v>
+      </c>
+      <c r="W34" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" t="s">
+        <v>244</v>
+      </c>
+      <c r="N35" t="s">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" t="s">
+        <v>207</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" t="s">
+        <v>247</v>
+      </c>
+      <c r="W35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" t="s">
+        <v>244</v>
+      </c>
+      <c r="N36" t="s">
+        <v>301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>245</v>
+      </c>
+      <c r="P36" t="s">
+        <v>207</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" t="s">
+        <v>247</v>
+      </c>
+      <c r="W36" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="O37" t="s">
+        <v>245</v>
+      </c>
+      <c r="P37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37" t="s">
+        <v>247</v>
+      </c>
+      <c r="W37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" t="s">
+        <v>244</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>245</v>
+      </c>
+      <c r="P38" t="s">
+        <v>207</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" t="s">
+        <v>247</v>
+      </c>
+      <c r="W38" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" t="s">
+        <v>244</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>245</v>
+      </c>
+      <c r="P39" t="s">
+        <v>207</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" t="s">
+        <v>247</v>
+      </c>
+      <c r="W39" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>245</v>
+      </c>
+      <c r="P40" t="s">
+        <v>207</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+      <c r="V40" t="s">
+        <v>247</v>
+      </c>
+      <c r="W40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>243</v>
+      </c>
+      <c r="M41" t="s">
+        <v>244</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>245</v>
+      </c>
+      <c r="P41" t="s">
+        <v>207</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" t="s">
+        <v>247</v>
+      </c>
+      <c r="W41" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" t="s">
+        <v>338</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>245</v>
+      </c>
+      <c r="P42" t="s">
+        <v>207</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>30</v>
+      </c>
+      <c r="V42" t="s">
+        <v>247</v>
+      </c>
+      <c r="W42" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" t="s">
+        <v>244</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>245</v>
+      </c>
+      <c r="P43" t="s">
+        <v>207</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" t="s">
+        <v>247</v>
+      </c>
+      <c r="W43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" t="s">
+        <v>344</v>
+      </c>
+      <c r="F44" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>243</v>
+      </c>
+      <c r="M44" t="s">
+        <v>244</v>
+      </c>
+      <c r="N44" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" t="s">
+        <v>245</v>
+      </c>
+      <c r="P44" t="s">
+        <v>207</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44" t="s">
+        <v>247</v>
+      </c>
+      <c r="W44" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>243</v>
+      </c>
+      <c r="M45" t="s">
+        <v>244</v>
+      </c>
+      <c r="N45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" t="s">
+        <v>245</v>
+      </c>
+      <c r="P45" t="s">
+        <v>207</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>30</v>
+      </c>
+      <c r="V45" t="s">
+        <v>247</v>
+      </c>
+      <c r="W45" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" t="s">
+        <v>350</v>
+      </c>
+      <c r="F46" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>243</v>
+      </c>
+      <c r="M46" t="s">
+        <v>244</v>
+      </c>
+      <c r="N46" t="s">
+        <v>301</v>
+      </c>
+      <c r="O46" t="s">
+        <v>245</v>
+      </c>
+      <c r="P46" t="s">
+        <v>207</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>30</v>
+      </c>
+      <c r="V46" t="s">
+        <v>247</v>
+      </c>
+      <c r="W46" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" t="s">
+        <v>353</v>
+      </c>
+      <c r="F47" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>243</v>
+      </c>
+      <c r="M47" t="s">
+        <v>244</v>
+      </c>
+      <c r="N47" t="s">
+        <v>301</v>
+      </c>
+      <c r="O47" t="s">
+        <v>245</v>
+      </c>
+      <c r="P47" t="s">
+        <v>207</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" t="s">
+        <v>247</v>
+      </c>
+      <c r="W47" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>243</v>
+      </c>
+      <c r="M48" t="s">
+        <v>244</v>
+      </c>
+      <c r="N48" t="s">
+        <v>301</v>
+      </c>
+      <c r="O48" t="s">
+        <v>245</v>
+      </c>
+      <c r="P48" t="s">
+        <v>207</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" t="s">
+        <v>30</v>
+      </c>
+      <c r="V48" t="s">
+        <v>247</v>
+      </c>
+      <c r="W48" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>358</v>
+      </c>
+      <c r="C49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" t="s">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s">
+        <v>243</v>
+      </c>
+      <c r="M49" t="s">
+        <v>244</v>
+      </c>
+      <c r="N49" t="s">
+        <v>301</v>
+      </c>
+      <c r="O49" t="s">
+        <v>245</v>
+      </c>
+      <c r="P49" t="s">
+        <v>207</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>30</v>
+      </c>
+      <c r="V49" t="s">
+        <v>247</v>
+      </c>
+      <c r="W49" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" t="s">
+        <v>362</v>
+      </c>
+      <c r="F50" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" t="s">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s">
+        <v>243</v>
+      </c>
+      <c r="M50" t="s">
+        <v>244</v>
+      </c>
+      <c r="N50" t="s">
+        <v>301</v>
+      </c>
+      <c r="O50" t="s">
+        <v>245</v>
+      </c>
+      <c r="P50" t="s">
+        <v>207</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" t="s">
+        <v>30</v>
+      </c>
+      <c r="V50" t="s">
+        <v>247</v>
+      </c>
+      <c r="W50" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" t="s">
+        <v>366</v>
+      </c>
+      <c r="L51" t="s">
+        <v>243</v>
+      </c>
+      <c r="M51" t="s">
+        <v>244</v>
+      </c>
+      <c r="N51" t="s">
+        <v>301</v>
+      </c>
+      <c r="O51" t="s">
+        <v>245</v>
+      </c>
+      <c r="P51" t="s">
+        <v>207</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
+        <v>30</v>
+      </c>
+      <c r="V51" t="s">
+        <v>247</v>
+      </c>
+      <c r="W51" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>243</v>
+      </c>
+      <c r="M52" t="s">
+        <v>244</v>
+      </c>
+      <c r="N52" t="s">
+        <v>301</v>
+      </c>
+      <c r="O52" t="s">
+        <v>245</v>
+      </c>
+      <c r="P52" t="s">
+        <v>207</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52" t="s">
+        <v>30</v>
+      </c>
+      <c r="V52" t="s">
+        <v>247</v>
+      </c>
+      <c r="W52" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
+        <v>371</v>
+      </c>
+      <c r="F53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>243</v>
+      </c>
+      <c r="M53" t="s">
+        <v>244</v>
+      </c>
+      <c r="N53" t="s">
+        <v>301</v>
+      </c>
+      <c r="O53" t="s">
+        <v>245</v>
+      </c>
+      <c r="P53" t="s">
+        <v>207</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V53" t="s">
+        <v>247</v>
+      </c>
+      <c r="W53" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s">
+        <v>243</v>
+      </c>
+      <c r="M54" t="s">
+        <v>244</v>
+      </c>
+      <c r="N54" t="s">
+        <v>301</v>
+      </c>
+      <c r="O54" t="s">
+        <v>245</v>
+      </c>
+      <c r="P54" t="s">
+        <v>207</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54" t="s">
+        <v>30</v>
+      </c>
+      <c r="V54" t="s">
+        <v>247</v>
+      </c>
+      <c r="W54" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s">
+        <v>243</v>
+      </c>
+      <c r="M55" t="s">
+        <v>244</v>
+      </c>
+      <c r="N55" t="s">
+        <v>301</v>
+      </c>
+      <c r="O55" t="s">
+        <v>245</v>
+      </c>
+      <c r="P55" t="s">
+        <v>207</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>30</v>
+      </c>
+      <c r="V55" t="s">
+        <v>247</v>
+      </c>
+      <c r="W55" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>380</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N56" t="s">
+        <v>301</v>
+      </c>
+      <c r="O56" t="s">
+        <v>245</v>
+      </c>
+      <c r="P56" t="s">
+        <v>207</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>30</v>
+      </c>
+      <c r="V56" t="s">
+        <v>247</v>
+      </c>
+      <c r="W56" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s">
+        <v>243</v>
+      </c>
+      <c r="M57" t="s">
+        <v>244</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O57" t="s">
+        <v>245</v>
+      </c>
+      <c r="P57" t="s">
+        <v>207</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>30</v>
+      </c>
+      <c r="V57" t="s">
+        <v>247</v>
+      </c>
+      <c r="W57" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>386</v>
+      </c>
+      <c r="F58" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>243</v>
+      </c>
+      <c r="M58" t="s">
+        <v>244</v>
+      </c>
+      <c r="N58" t="s">
+        <v>301</v>
+      </c>
+      <c r="O58" t="s">
+        <v>245</v>
+      </c>
+      <c r="P58" t="s">
+        <v>207</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>30</v>
+      </c>
+      <c r="V58" t="s">
+        <v>247</v>
+      </c>
+      <c r="W58" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s">
+        <v>243</v>
+      </c>
+      <c r="M59" t="s">
+        <v>244</v>
+      </c>
+      <c r="N59" t="s">
+        <v>301</v>
+      </c>
+      <c r="O59" t="s">
+        <v>245</v>
+      </c>
+      <c r="P59" t="s">
+        <v>207</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>30</v>
+      </c>
+      <c r="V59" t="s">
+        <v>247</v>
+      </c>
+      <c r="W59" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>243</v>
+      </c>
+      <c r="M60" t="s">
+        <v>244</v>
+      </c>
+      <c r="N60" t="s">
+        <v>301</v>
+      </c>
+      <c r="O60" t="s">
+        <v>245</v>
+      </c>
+      <c r="P60" t="s">
+        <v>207</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>30</v>
+      </c>
+      <c r="V60" t="s">
+        <v>247</v>
+      </c>
+      <c r="W60" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" t="s">
+        <v>301</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" t="s">
+        <v>395</v>
+      </c>
+      <c r="F61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G61" t="s">
+        <v>396</v>
+      </c>
+      <c r="L61" t="s">
+        <v>243</v>
+      </c>
+      <c r="M61" t="s">
+        <v>244</v>
+      </c>
+      <c r="N61" t="s">
+        <v>301</v>
+      </c>
+      <c r="O61" t="s">
+        <v>245</v>
+      </c>
+      <c r="P61" t="s">
+        <v>207</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>30</v>
+      </c>
+      <c r="V61" t="s">
+        <v>247</v>
+      </c>
+      <c r="W61" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" t="s">
+        <v>398</v>
+      </c>
+      <c r="F62" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" t="s">
+        <v>399</v>
+      </c>
+      <c r="L62" t="s">
+        <v>243</v>
+      </c>
+      <c r="M62" t="s">
+        <v>244</v>
+      </c>
+      <c r="N62" t="s">
+        <v>301</v>
+      </c>
+      <c r="O62" t="s">
+        <v>245</v>
+      </c>
+      <c r="P62" t="s">
+        <v>207</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>30</v>
+      </c>
+      <c r="V62" t="s">
+        <v>247</v>
+      </c>
+      <c r="W62" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>401</v>
+      </c>
+      <c r="F63" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="L63" t="s">
+        <v>243</v>
+      </c>
+      <c r="M63" t="s">
+        <v>244</v>
+      </c>
+      <c r="N63" t="s">
+        <v>301</v>
+      </c>
+      <c r="O63" t="s">
+        <v>245</v>
+      </c>
+      <c r="P63" t="s">
+        <v>207</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>30</v>
+      </c>
+      <c r="V63" t="s">
+        <v>247</v>
+      </c>
+      <c r="W63" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
+      <c r="B64" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F64" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" t="s">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s">
+        <v>243</v>
+      </c>
+      <c r="M64" t="s">
+        <v>244</v>
+      </c>
+      <c r="N64" t="s">
+        <v>301</v>
+      </c>
+      <c r="O64" t="s">
+        <v>245</v>
+      </c>
+      <c r="P64" t="s">
+        <v>207</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V64" t="s">
+        <v>247</v>
+      </c>
+      <c r="W64" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
+      <c r="B65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" t="s">
+        <v>408</v>
+      </c>
+      <c r="L65" t="s">
+        <v>243</v>
+      </c>
+      <c r="M65" t="s">
+        <v>244</v>
+      </c>
+      <c r="N65" t="s">
+        <v>301</v>
+      </c>
+      <c r="O65" t="s">
+        <v>245</v>
+      </c>
+      <c r="P65" t="s">
+        <v>207</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>30</v>
+      </c>
+      <c r="V65" t="s">
+        <v>247</v>
+      </c>
+      <c r="W65" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
+      <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" t="s">
+        <v>410</v>
+      </c>
+      <c r="F66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" t="s">
+        <v>411</v>
+      </c>
+      <c r="L66" t="s">
+        <v>243</v>
+      </c>
+      <c r="M66" t="s">
+        <v>244</v>
+      </c>
+      <c r="N66" t="s">
+        <v>301</v>
+      </c>
+      <c r="O66" t="s">
+        <v>245</v>
+      </c>
+      <c r="P66" t="s">
+        <v>207</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>30</v>
+      </c>
+      <c r="V66" t="s">
+        <v>247</v>
+      </c>
+      <c r="W66" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
+      <c r="B67" t="s">
+        <v>412</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" t="s">
+        <v>410</v>
+      </c>
+      <c r="F67" t="s">
+        <v>257</v>
+      </c>
+      <c r="G67" t="s">
+        <v>413</v>
+      </c>
+      <c r="L67" t="s">
+        <v>243</v>
+      </c>
+      <c r="M67" t="s">
+        <v>244</v>
+      </c>
+      <c r="N67" t="s">
+        <v>301</v>
+      </c>
+      <c r="O67" t="s">
+        <v>245</v>
+      </c>
+      <c r="P67" t="s">
+        <v>207</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>30</v>
+      </c>
+      <c r="V67" t="s">
+        <v>247</v>
+      </c>
+      <c r="W67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
